--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -915,24 +915,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,6 +951,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,24 +979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1284,12 +1284,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="11" t="s">
         <v>81</v>
       </c>
@@ -1310,16 +1310,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
-        <v>2／39</v>
+        <v>4／39</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>83</v>
@@ -1337,14 +1337,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="8" t="str">
         <f>CONCATENATE($E$2,K3)</f>
         <v>TwinSword_Neutral</v>
@@ -1367,12 +1367,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="18" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,K4)</f>
         <v>TwinSword_Move</v>
@@ -1395,12 +1395,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="22"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Jump</v>
@@ -1421,12 +1421,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="22"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fall</v>
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
@@ -1785,7 +1785,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="28" t="s">
         <v>37</v>
       </c>
@@ -1837,8 +1837,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1865,8 +1865,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="25" t="s">
         <v>41</v>
       </c>
@@ -1891,8 +1891,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>42</v>
       </c>
@@ -1917,8 +1917,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="25" t="s">
         <v>43</v>
       </c>
@@ -1943,11 +1943,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1973,9 +1973,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1999,9 +1999,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
@@ -2025,9 +2025,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2053,9 +2053,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
@@ -2079,9 +2079,9 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10" t="s">
         <v>53</v>
       </c>
@@ -2105,9 +2105,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2133,9 +2133,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="10" t="s">
         <v>52</v>
       </c>
@@ -2159,9 +2159,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="10" t="s">
         <v>53</v>
       </c>
@@ -2185,9 +2185,9 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -2213,9 +2213,9 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="10" t="s">
         <v>52</v>
       </c>
@@ -2239,9 +2239,9 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="10" t="s">
         <v>53</v>
       </c>
@@ -2265,8 +2265,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
@@ -2293,12 +2293,12 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Special</v>
@@ -2319,21 +2319,23 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="18" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Win</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="G40" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE($G$2,K40)</f>
         <v>Claw_Win</v>
       </c>
       <c r="H40" s="16"/>
@@ -2347,17 +2349,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="23"/>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="18" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Lose</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="G41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Lose</v>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -234,10 +234,6 @@
   </si>
   <si>
     <t>_Lose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション(スピード)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -775,72 +771,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,18 +856,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1141,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,56 +1161,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="41" t="s">
-        <v>50</v>
+      <c r="A1" s="39" t="str">
+        <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
+        <v>アニメーション(スピード)：5／54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
         <v>5／18</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>0／18</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
@@ -1222,23 +1219,23 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
-        <v>51</v>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>CONCATENATE($F$2,L3)</f>
         <v>TwinSword_Neutral</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8" t="str">
         <f>CONCATENATE($H$2,L3)</f>
@@ -1255,21 +1252,21 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="45" t="s">
-        <v>51</v>
+      <c r="D4" s="37"/>
+      <c r="E4" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="16" t="str">
         <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,L4)</f>
         <v>TwinSword_Move</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="16" t="str">
         <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,L4)</f>
@@ -1286,14 +1283,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27"/>
-      <c r="B5" s="33" t="s">
-        <v>49</v>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="36"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="45" t="s">
-        <v>51</v>
+      <c r="D5" s="37"/>
+      <c r="E5" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1315,13 +1312,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard</v>
@@ -1342,13 +1339,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard_Break</v>
@@ -1369,14 +1366,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="45" t="s">
-        <v>51</v>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1398,14 +1395,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="45" t="s">
-        <v>51</v>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1427,14 +1424,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="45" t="s">
-        <v>51</v>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1456,19 +1453,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="37"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Stun</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" si="1"/>
@@ -1485,14 +1482,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="45" t="s">
-        <v>51</v>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1514,14 +1511,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="45" t="s">
-        <v>51</v>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1543,15 +1540,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="27"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Rolling</v>
@@ -1572,18 +1569,18 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>51</v>
+      <c r="E15" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1605,13 +1602,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="35" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Ground_M</v>
@@ -1632,14 +1629,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="35" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>51</v>
+      <c r="E17" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1661,13 +1658,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Special</v>
@@ -1688,23 +1685,23 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="45" t="s">
-        <v>51</v>
+      <c r="D19" s="37"/>
+      <c r="E19" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Win</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="16" t="str">
         <f>CONCATENATE($H$2,L19)</f>
@@ -1721,21 +1718,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="45" t="s">
-        <v>51</v>
+      <c r="D20" s="37"/>
+      <c r="E20" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Lose</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="16" t="str">
         <f t="shared" si="1"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,24 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,6 +842,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1145,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1161,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：5／54</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：6／54</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1191,11 +1195,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1208,7 +1212,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>0／18</v>
+        <v>1／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1219,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1241,7 +1245,9 @@
         <f>CONCATENATE($H$2,L3)</f>
         <v>Claw_Neutral</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="16" t="str">
         <f>CONCATENATE($H$2,L3)</f>
         <v>Claw_Neutral</v>
@@ -1252,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1283,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1312,12 +1318,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1339,12 +1345,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1366,12 +1372,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1395,12 +1401,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1424,12 +1430,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1453,12 +1459,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1482,12 +1488,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1511,12 +1517,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1540,14 +1546,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1569,11 +1575,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1602,9 +1608,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1629,9 +1635,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1658,12 +1664,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1685,14 +1691,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1718,12 +1724,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1806,6 +1812,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1822,11 +1833,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -790,6 +790,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,24 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：6／54</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="25" t="s">
+        <v>アニメーション(スピード)：7／54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,17 +1195,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>5／18</v>
+        <v>6／18</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>45</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1318,12 +1318,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1345,12 +1345,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1372,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1385,7 +1385,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Damage</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Damage</v>
@@ -1401,12 +1403,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1430,12 +1432,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1459,12 +1461,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1488,12 +1490,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1517,12 +1519,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1546,14 +1548,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1575,11 +1577,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1608,9 +1610,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1635,9 +1637,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1664,12 +1666,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1691,14 +1693,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1724,12 +1726,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1812,11 +1814,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1833,6 +1830,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1167,7 +1167,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：7／54</v>
+        <v>アニメーション(スピード)：10／54</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>1／18</v>
+        <v>4／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1392,7 +1392,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Damage</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Damage</v>
@@ -1421,7 +1423,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Burst</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J9" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Burst</v>
@@ -1450,7 +1454,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Down</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Down</v>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -790,24 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,6 +842,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：10／54</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：11／54</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,11 +1195,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>4／18</v>
+        <v>5／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1318,12 +1318,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1345,12 +1345,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1372,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1405,12 +1405,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1436,12 +1436,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1467,12 +1467,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1496,12 +1496,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1514,7 +1514,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Wake_Up</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J12" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Wake_Up</v>
@@ -1525,12 +1527,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1554,14 +1556,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1583,11 +1585,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1616,9 +1618,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1643,9 +1645,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1672,12 +1674,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1699,14 +1701,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1732,12 +1734,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1820,6 +1822,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1836,11 +1843,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -790,6 +790,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,24 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：11／54</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="25" t="s">
+        <v>アニメーション(スピード)：12／54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,17 +1195,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>6／18</v>
+        <v>7／18</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>45</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1302,7 +1302,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Jump</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H5" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Jump</v>
@@ -1318,12 +1320,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1345,12 +1347,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1374,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1405,12 +1407,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1436,12 +1438,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1467,12 +1469,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1496,12 +1498,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1527,12 +1529,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1556,14 +1558,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1585,11 +1587,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1618,9 +1620,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1645,9 +1647,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1674,12 +1676,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1701,14 +1703,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1734,12 +1736,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1822,11 +1824,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1843,6 +1840,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -790,24 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,6 +842,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：12／54</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：15／54</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,17 +1195,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>7／18</v>
+        <v>10／18</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>45</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1320,12 +1320,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1347,12 +1347,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1374,12 +1374,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1407,12 +1407,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1438,12 +1438,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1469,12 +1469,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1498,12 +1498,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1511,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Wake_Up</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Wake_Up</v>
@@ -1529,12 +1531,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1558,20 +1560,22 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Rolling</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Rolling</v>
@@ -1587,11 +1591,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1604,7 +1608,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Ground_L</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Attack_Ground_L</v>
@@ -1620,9 +1626,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1647,9 +1653,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1676,12 +1682,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1703,14 +1709,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1736,12 +1742,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1824,6 +1830,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1840,11 +1851,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1167,7 +1167,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：15／54</v>
+        <v>アニメーション(スピード)：20／54</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1205,14 +1205,14 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>10／18</v>
+        <v>12／18</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>5／18</v>
+        <v>8／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1309,7 +1309,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Jump</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Jump</v>
@@ -1336,7 +1338,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Guard</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J6" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Guard</v>
@@ -1420,7 +1424,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Burst</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Burst</v>
@@ -1451,7 +1457,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Down</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Down</v>
@@ -1731,7 +1739,9 @@
         <f>CONCATENATE($H$2,L19)</f>
         <v>Claw_Win</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J19" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Win</v>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -790,6 +790,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,24 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：20／54</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="25" t="s">
+        <v>アニメーション(スピード)：21／54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,11 +1195,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>8／18</v>
+        <v>9／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1258,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1322,12 +1322,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1351,12 +1351,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1378,12 +1378,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1411,12 +1411,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1444,12 +1444,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1477,12 +1477,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1495,7 +1495,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Stun</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Stun</v>
@@ -1506,12 +1508,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1539,12 +1541,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1568,14 +1570,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1599,11 +1601,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1634,9 +1636,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1661,9 +1663,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1690,12 +1692,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1717,14 +1719,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1752,12 +1754,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1840,11 +1842,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1861,6 +1858,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -790,24 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,6 +846,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1149,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1165,14 +1169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：21／54</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：22／54</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,11 +1199,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1216,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>9／18</v>
+        <v>10／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1223,14 +1227,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1258,12 +1262,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1289,12 +1293,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1322,12 +1326,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1351,12 +1355,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1378,12 +1382,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1411,12 +1415,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1444,12 +1448,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1477,12 +1481,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1508,12 +1512,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1541,12 +1545,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1570,14 +1574,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1601,11 +1605,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1636,9 +1640,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1663,9 +1667,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1692,12 +1696,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1719,14 +1723,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1754,12 +1758,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1778,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Lose</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Lose</v>
@@ -1842,6 +1848,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1858,11 +1869,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,24 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1169,14 +1169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：22／54</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="25" t="s">
+        <v>アニメーション(スピード)：23／54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1199,11 +1199,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>10／18</v>
+        <v>11／18</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>40</v>
@@ -1227,14 +1227,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
@@ -1262,12 +1262,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>50</v>
       </c>
@@ -1293,12 +1293,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
@@ -1326,12 +1326,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1355,12 +1355,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1382,12 +1382,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
@@ -1415,12 +1415,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
@@ -1448,12 +1448,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
         <v>50</v>
       </c>
@@ -1481,12 +1481,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1512,12 +1512,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
@@ -1545,12 +1545,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
@@ -1574,14 +1574,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,9 @@
         <f t="shared" si="1"/>
         <v>Claw_Rolling</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J14" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Claw_Rolling</v>
@@ -1605,11 +1607,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1640,9 +1642,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1667,9 +1669,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1696,12 +1698,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1723,14 +1725,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
@@ -1758,12 +1760,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
         <v>50</v>
       </c>
@@ -1848,11 +1850,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1869,6 +1866,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -234,20 +234,6 @@
   </si>
   <si>
     <t>_Lose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sardine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名(鰯)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イワシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1149,7 +1135,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1162,71 +1148,56 @@
     <col min="7" max="7" width="7.9140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.9140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="str">
-        <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(スピード)：23／54</v>
+        <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
+        <v>アニメーション(スピード)：23／36</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="41"/>
       <c r="E1" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="44"/>
       <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
         <v>12／18</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>11／18</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="15" t="str">
-        <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
-        <v>0／18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
@@ -1236,32 +1207,27 @@
       <c r="C3" s="47"/>
       <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f>CONCATENATE($F$2,L3)</f>
+        <f>CONCATENATE($F$2,J3)</f>
         <v>TwinSword_Neutral</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="8" t="str">
-        <f>CONCATENATE($H$2,L3)</f>
+        <f>CONCATENATE($H$2,J3)</f>
         <v>Claw_Neutral</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="16" t="str">
-        <f>CONCATENATE($H$2,L3)</f>
-        <v>Claw_Neutral</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>4</v>
@@ -1269,63 +1235,53 @@
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16" t="str">
-        <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,L4)</f>
+        <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,J4)</f>
         <v>TwinSword_Move</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="16" t="str">
-        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,L4)</f>
+        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,J4)</f>
         <v>Claw_Move</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="16" t="str">
-        <f t="shared" ref="J4:J20" si="2">CONCATENATE($H$2,L4)</f>
-        <v>Claw_Move</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Jump</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Jump</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Jump</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="38"/>
       <c r="B6" s="25" t="s">
         <v>15</v>
@@ -1343,18 +1299,13 @@
         <v>Claw_Guard</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Guard</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="38"/>
       <c r="B7" s="25" t="s">
         <v>16</v>
@@ -1372,16 +1323,11 @@
         <v>Claw_Guard_Break</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Guard_Break</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="38"/>
       <c r="B8" s="25" t="s">
         <v>17</v>
@@ -1389,32 +1335,27 @@
       <c r="C8" s="27"/>
       <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Damage</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Damage</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Damage</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="38"/>
       <c r="B9" s="25" t="s">
         <v>18</v>
@@ -1422,32 +1363,27 @@
       <c r="C9" s="27"/>
       <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Burst</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Burst</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Burst</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="38"/>
       <c r="B10" s="25" t="s">
         <v>22</v>
@@ -1455,32 +1391,27 @@
       <c r="C10" s="27"/>
       <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Down</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Down</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Down</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="38"/>
       <c r="B11" s="25" t="s">
         <v>19</v>
@@ -1493,25 +1424,20 @@
         <v>TwinSword_Stun</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Stun</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Stun</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="38"/>
       <c r="B12" s="25" t="s">
         <v>20</v>
@@ -1519,32 +1445,27 @@
       <c r="C12" s="27"/>
       <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Wake_Up</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Wake_Up</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Wake_Up</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
         <v>21</v>
@@ -1552,7 +1473,7 @@
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1564,16 +1485,11 @@
         <v>Claw_Revival</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Revival</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -1588,25 +1504,20 @@
         <v>TwinSword_Rolling</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Rolling</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Rolling</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="38"/>
       <c r="B15" s="33" t="s">
         <v>26</v>
@@ -1618,30 +1529,25 @@
         <v>28</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Ground_L</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Attack_Ground_L</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Attack_Ground_L</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -1659,16 +1565,11 @@
         <v>Claw_Attack_Ground_M</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Attack_Ground_M</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="34"/>
@@ -1676,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1688,20 +1589,15 @@
         <v>Claw_Attack_Charge</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Attack_Charge</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="23"/>
@@ -1715,16 +1611,11 @@
         <v>Claw_Attack_Special</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Attack_Special</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
@@ -1734,32 +1625,27 @@
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Win</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f>CONCATENATE($H$2,L19)</f>
+        <f>CONCATENATE($H$2,J19)</f>
         <v>Claw_Win</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Win</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
         <v>37</v>
@@ -1767,32 +1653,27 @@
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Lose</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Lose</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Claw_Lose</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1802,10 +1683,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="8"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1815,10 +1694,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="8"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1828,10 +1705,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1841,10 +1716,8 @@
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +342,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -704,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,24 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,6 +841,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1153,14 +1171,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="33" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
-        <v>アニメーション(スピード)：23／36</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：23／32</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1177,35 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>12／18</v>
+        <v>12／16</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>11／18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+        <v>11／16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
@@ -1228,12 +1246,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="24" t="s">
         <v>48</v>
       </c>
@@ -1248,18 +1266,20 @@
         <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,J4)</f>
         <v>Claw_Move</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
@@ -1282,58 +1302,44 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>TwinSword_Guard</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Claw_Guard</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>TwinSword_Guard_Break</v>
-      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Claw_Guard_Break</v>
-      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
@@ -1356,12 +1362,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
@@ -1384,12 +1390,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
@@ -1412,12 +1418,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1438,12 +1444,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1466,12 +1472,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1490,14 +1496,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1518,11 +1524,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1548,9 +1554,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1570,9 +1576,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1594,12 +1600,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1616,14 +1622,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
@@ -1646,12 +1652,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="24" t="s">
         <v>48</v>
       </c>
@@ -1723,6 +1729,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1739,11 +1750,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -295,10 +295,6 @@
   </si>
   <si>
     <t>★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -372,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -707,13 +703,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +815,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,24 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,6 +894,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1185,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1171,14 +1203,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="39" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
         <v>アニメーション(スピード)：23／32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1195,11 +1227,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -1215,15 +1247,15 @@
         <v>11／16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
@@ -1234,24 +1266,24 @@
       <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="52" t="str">
         <f>CONCATENATE($H$2,J3)</f>
         <v>Claw_Neutral</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>48</v>
       </c>
@@ -1262,11 +1294,11 @@
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="16" t="str">
+      <c r="H4" s="53" t="str">
         <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,J4)</f>
         <v>Claw_Move</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1274,12 +1306,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1322,7 @@
       <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="16" t="str">
+      <c r="H5" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Jump</v>
       </c>
@@ -1302,7 +1334,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
@@ -1311,14 +1343,14 @@
       <c r="E6" s="21"/>
       <c r="F6" s="16"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="49" t="s">
         <v>16</v>
       </c>
@@ -1327,19 +1359,19 @@
       <c r="E7" s="21"/>
       <c r="F7" s="16"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
@@ -1350,7 +1382,7 @@
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Damage</v>
       </c>
@@ -1362,12 +1394,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
@@ -1378,7 +1410,7 @@
       <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Burst</v>
       </c>
@@ -1390,12 +1422,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1438,7 @@
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Down</v>
       </c>
@@ -1418,12 +1450,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1464,7 @@
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Stun</v>
       </c>
@@ -1444,12 +1476,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1460,7 +1492,7 @@
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Wake_Up</v>
       </c>
@@ -1472,12 +1504,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1496,14 +1528,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1524,11 +1556,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1554,9 +1586,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1576,9 +1608,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1600,12 +1632,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1622,14 +1654,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
@@ -1652,12 +1684,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="24" t="s">
         <v>48</v>
       </c>
@@ -1673,7 +1705,7 @@
         <v>Claw_Lose</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>39</v>
@@ -1729,11 +1761,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1750,6 +1777,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -815,22 +815,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +884,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1203,14 +1203,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="35" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
-        <v>アニメーション(スピード)：23／32</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="31" t="s">
+        <v>アニメーション(スピード)：24／32</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1227,11 +1227,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -1244,18 +1244,18 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>11／16</v>
+        <v>12／16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="52" t="str">
+      <c r="H3" s="25" t="str">
         <f>CONCATENATE($H$2,J3)</f>
         <v>Claw_Neutral</v>
       </c>
@@ -1278,12 +1278,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="24" t="s">
         <v>48</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="53" t="str">
+      <c r="H4" s="26" t="str">
         <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,J4)</f>
         <v>Claw_Move</v>
       </c>
@@ -1306,12 +1306,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="53" t="str">
+      <c r="H5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Jump</v>
       </c>
@@ -1334,44 +1334,44 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="53"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="38"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="53"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="53" t="str">
+      <c r="H8" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Damage</v>
       </c>
@@ -1394,12 +1394,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="38"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="53" t="str">
+      <c r="H9" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Burst</v>
       </c>
@@ -1422,12 +1422,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="53" t="str">
+      <c r="H10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Down</v>
       </c>
@@ -1450,12 +1450,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1464,7 +1464,7 @@
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="53" t="str">
+      <c r="H11" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Stun</v>
       </c>
@@ -1476,12 +1476,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="53" t="str">
+      <c r="H12" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Wake_Up</v>
       </c>
@@ -1504,12 +1504,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1528,14 +1528,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1556,11 +1556,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1580,15 +1580,17 @@
         <f t="shared" si="1"/>
         <v>Claw_Attack_Ground_L</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1608,9 +1610,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1632,12 +1634,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1654,14 +1656,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
@@ -1684,12 +1686,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="24" t="s">
         <v>48</v>
       </c>
@@ -1761,6 +1763,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1777,11 +1784,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -821,6 +821,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,24 +900,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1203,14 +1203,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="str">
+      <c r="A1" s="41" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
-        <v>アニメーション(スピード)：24／32</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="27" t="s">
+        <v>アニメーション(スピード)：26／32</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1227,35 +1227,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>12／16</v>
+        <v>13／16</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>12／16</v>
+        <v>13／16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
@@ -1278,12 +1278,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="24" t="s">
         <v>48</v>
       </c>
@@ -1306,12 +1306,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
@@ -1334,12 +1334,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="34"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16"/>
       <c r="G6" s="4"/>
@@ -1350,12 +1350,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="34"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16"/>
       <c r="G7" s="4"/>
@@ -1366,12 +1366,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="34"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
@@ -1394,12 +1394,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
@@ -1422,12 +1422,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="34"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
@@ -1450,12 +1450,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1476,12 +1476,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1504,12 +1504,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1528,14 +1528,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="34"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1556,11 +1556,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1588,9 +1588,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1610,9 +1610,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1623,23 +1623,27 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Charge</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Attack_Charge</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1656,14 +1660,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
@@ -1686,12 +1690,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="24" t="s">
         <v>48</v>
       </c>
@@ -1763,11 +1767,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
@@ -1784,6 +1783,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_スピード.xlsx
+++ b/作成リスト_スピード.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -298,7 +298,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_Wait</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,22 +828,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,6 +895,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1203,14 +1216,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="str">
+      <c r="A1" s="37" t="str">
         <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
-        <v>アニメーション(スピード)：26／32</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="33" t="s">
+        <v>アニメーション(スピード)：27／34</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1227,35 +1240,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>13／16</v>
+        <v>14／17</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>13／16</v>
+        <v>13／17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
@@ -1278,12 +1291,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="24" t="s">
         <v>48</v>
       </c>
@@ -1306,12 +1319,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
@@ -1334,12 +1347,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="40"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="21"/>
       <c r="F6" s="16"/>
       <c r="G6" s="4"/>
@@ -1350,12 +1363,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="40"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="21"/>
       <c r="F7" s="16"/>
       <c r="G7" s="4"/>
@@ -1366,12 +1379,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="40"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
@@ -1394,12 +1407,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="40"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
@@ -1422,12 +1435,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="40"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
@@ -1450,12 +1463,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="40"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1476,12 +1489,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="40"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1504,12 +1517,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="40"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
@@ -1528,14 +1541,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="40"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1556,11 +1569,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1588,9 +1601,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1599,7 +1612,9 @@
         <f t="shared" si="0"/>
         <v>TwinSword_Attack_Ground_M</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Claw_Attack_Ground_M</v>
@@ -1610,9 +1625,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
@@ -1639,11 +1654,11 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1660,73 +1675,86 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>TwinSword_Win</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>44</v>
-      </c>
+        <f>CONCATENATE($F$2,J19)</f>
+        <v>TwinSword_Wait</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="16" t="str">
         <f>CONCATENATE($H$2,J19)</f>
+        <v>Claw_Wait</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="27" t="str">
+        <f t="shared" ref="F20:F21" si="2">CONCATENATE($F$2,J20)</f>
+        <v>TwinSword_Win</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="27" t="str">
+        <f>CONCATENATE($H$2,J20)</f>
         <v>Claw_Win</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="24" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F21" s="27" t="str">
+        <f t="shared" si="2"/>
         <v>TwinSword_Lose</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="16" t="str">
-        <f t="shared" si="1"/>
+      <c r="G21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="27" t="str">
+        <f t="shared" ref="H21" si="3">CONCATENATE($H$2,J21)</f>
         <v>Claw_Lose</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
@@ -1766,16 +1794,22 @@
       <c r="E25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1783,11 +1817,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
